--- a/medicine/Mort/Cimetière_monumental_de_la_chartreuse_de_Bologne/Cimetière_monumental_de_la_chartreuse_de_Bologne.xlsx
+++ b/medicine/Mort/Cimetière_monumental_de_la_chartreuse_de_Bologne/Cimetière_monumental_de_la_chartreuse_de_Bologne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_la_chartreuse_de_Bologne</t>
+          <t>Cimetière_monumental_de_la_chartreuse_de_Bologne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière monumental de la chartreuse de Bologne (en italien, Cimitero monumentale della Certosa di Bologna ) est un cimetière de Bologne en Italie. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_la_chartreuse_de_Bologne</t>
+          <t>Cimetière_monumental_de_la_chartreuse_de_Bologne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière monumental de la chartreuse de Bologne se situe à l'extérieur des anciennes fortifications de la ville, près du stade Renato-Dall'Ara, au pied du Colle della Guardia où se trouve le sanctuaire Madonna di San Luca.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_la_chartreuse_de_Bologne</t>
+          <t>Cimetière_monumental_de_la_chartreuse_de_Bologne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière a été réalisé en 1801 en réutilisant les anciennes structures de la chartreuse Saint-Jérôme de Casara, fondée vers le milieu du Trecento, supprimée en 1797 par Napoléon Bonaparte, dont il ne reste que l'église Saint-Jérôme. 
 La noblesse et la bourgeoisie locale, voulant construire des tombeaux et des chapelles familiales, ont transformé la Certosa en un « musée à ciel ouvert », étape du Grand Tour, visité par Chateaubriand, Byron, Dickens, Mommsen, Stendhal. 
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_la_chartreuse_de_Bologne</t>
+          <t>Cimetière_monumental_de_la_chartreuse_de_Bologne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,8 +595,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monuments funéraires
-Les nombreuses œuvres sculptées sont dues entre autres à : Giacomo De Maria, Lorenzo Bartolini, Giovanni e Massimiliano Putti, Mario Sarto, Alessandro Franceschi, Pietro Tenerani, Cincinnato Baruzzi, Carlo Chelli, Giovanni Dupré, Vincenzo Vela, Giovan Battista Lombardi, Luigi Acquisti, Augusto Rivalta, Diego Sarti, Tullo Golfarelli, Leonardo Bistolfi, Giorgio Kienerk, Silverio Montaguti, Giuseppe Romagnoli, Pasquale Rizzoli, Ercole Drei, Giacomo Manzù, Luciano Minguzzi, Farpi Vignoli, Bruno Saetti. 
+          <t>Monuments funéraires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nombreuses œuvres sculptées sont dues entre autres à : Giacomo De Maria, Lorenzo Bartolini, Giovanni e Massimiliano Putti, Mario Sarto, Alessandro Franceschi, Pietro Tenerani, Cincinnato Baruzzi, Carlo Chelli, Giovanni Dupré, Vincenzo Vela, Giovan Battista Lombardi, Luigi Acquisti, Augusto Rivalta, Diego Sarti, Tullo Golfarelli, Leonardo Bistolfi, Giorgio Kienerk, Silverio Montaguti, Giuseppe Romagnoli, Pasquale Rizzoli, Ercole Drei, Giacomo Manzù, Luciano Minguzzi, Farpi Vignoli, Bruno Saetti. 
 Parmi les peintres ayant réalisé les tombes peintes : Pietro Fancelli, Flaminio Minozzi, Antonio Basoli et Pelagio Palagi.
 </t>
         </is>
@@ -592,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_la_chartreuse_de_Bologne</t>
+          <t>Cimetière_monumental_de_la_chartreuse_de_Bologne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +631,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adolfo Albertazzi, écrivain
@@ -620,7 +643,7 @@
 Paolo Aleotti, sculpteur
 Napoleone Angiolini, peintre
 Riccardo Bacchelli, écrivain
-Valentino Baldi (1744-1816), peintre de l'École florentine[1]
+Valentino Baldi (1744-1816), peintre de l'École florentine
 Enrico Barberi, sculpteur
 Gualberta Alaide Beccari, écrivaine
 Genuzio Bentini, homme politique
@@ -685,7 +708,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_la_chartreuse_de_Bologne</t>
+          <t>Cimetière_monumental_de_la_chartreuse_de_Bologne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,9 +726,11 @@
           <t>Le cimetière dans la littérature</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En dehors de la chartreuse de Bologne, poème de Giosuè Carducci[2].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En dehors de la chartreuse de Bologne, poème de Giosuè Carducci.</t>
         </is>
       </c>
     </row>
@@ -715,7 +740,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_monumental_de_la_chartreuse_de_Bologne</t>
+          <t>Cimetière_monumental_de_la_chartreuse_de_Bologne</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -733,7 +758,9 @@
           <t>Traduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(it) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en italien intitulé « Cimitero monumentale della Certosa di Bologna » (voir la liste des auteurs).</t>
         </is>
